--- a/Yfirfall_Duty10-20.xlsx
+++ b/Yfirfall_Duty10-20.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benedikt/Documents/Github/HonnunarVerk/H-nnunarverkefni-rt-lvu-og-m-lit-kni-2020/Honnunarverkefni-ortolvu-og-maelitaekni-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6DE305-A1D7-0A4F-AF20-FB0120D57195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5636FCDF-A352-1347-A7E1-8F3049497C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34880" yWindow="-4860" windowWidth="27640" windowHeight="16540"/>
+    <workbookView xWindow="-34880" yWindow="-4860" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yfirfall_Duty10-20" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -608,7 +604,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2453607969662478E-2"/>
+          <c:y val="1.5851427662451286E-2"/>
+          <c:w val="0.92456948869415279"/>
+          <c:h val="0.86121212121212121"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -2059,15 +2065,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2392,11 +2398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection sqref="A1:B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
